--- a/TaiLieu/CTS6326_Project plan.xlsx
+++ b/TaiLieu/CTS6326_Project plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>TT</t>
   </si>
@@ -610,7 +610,9 @@
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="E9" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
@@ -636,7 +638,9 @@
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
     </row>
@@ -746,7 +750,9 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
     </row>
@@ -759,7 +765,9 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="E20" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
     </row>
@@ -772,7 +780,9 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
     </row>
@@ -785,7 +795,9 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
     </row>
@@ -798,7 +810,9 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
     </row>
@@ -811,7 +825,9 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="E24" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
     </row>
@@ -824,7 +840,9 @@
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+      <c r="E25" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
     </row>

--- a/TaiLieu/CTS6326_Project plan.xlsx
+++ b/TaiLieu/CTS6326_Project plan.xlsx
@@ -8,15 +8,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="bw5HuiFv1a1VFyExCYBKnxNdLU1e2ZcCkjG5sypW6Bs="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgMZa/6UByNyElbjKliKPeAzWzlEw=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
   <si>
     <t>TT</t>
   </si>
@@ -625,7 +625,9 @@
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
@@ -653,7 +655,9 @@
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
     </row>
@@ -666,7 +670,9 @@
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="E13" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
     </row>
@@ -709,7 +715,9 @@
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="E16" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
     </row>
@@ -841,7 +849,7 @@
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -868,7 +876,9 @@
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+      <c r="E27" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
     </row>
@@ -881,7 +891,9 @@
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="E28" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
     </row>
@@ -894,7 +906,9 @@
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
     </row>
@@ -920,7 +934,9 @@
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="E31" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
@@ -933,7 +949,9 @@
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
+      <c r="E32" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
